--- a/data/derived/arc-tme-duke/arc-tme-duke.xlsx
+++ b/data/derived/arc-tme-duke/arc-tme-duke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>contains data for samples from Duke FACE control plots incubated by F. Hopkins</t>
   </si>
@@ -131,12 +131,6 @@
     <t>C, N, and CN data: taken from Table 3 in: Lichter et al. 2008 (doi.org/10.1111/j.1365-2486.2008.01701.x)</t>
   </si>
   <si>
-    <t>time_inc_d</t>
-  </si>
-  <si>
-    <t>time_pre_d</t>
-  </si>
-  <si>
     <t>preincubation time stated as 1 day in Hopkins 2012 SI</t>
   </si>
   <si>
@@ -174,6 +168,45 @@
   </si>
   <si>
     <t>YearSampled date from Hopkins et al. 2012 SI</t>
+  </si>
+  <si>
+    <t>SampleName</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>time_d</t>
+  </si>
+  <si>
+    <t>no pre-inc data reported</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -231,8 +264,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -256,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -265,6 +314,14 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -273,9 +330,37 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -645,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -658,7 +743,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -678,17 +763,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -868,219 +953,351 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="B2" t="str">
+        <f>A2</f>
+        <v>Du123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2">
         <v>140</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>88.9</v>
       </c>
-      <c r="G2">
-        <f>VLOOKUP($A2,Duke_priming_for_Sue_copy!$A$2:$N$3,9,FALSE)</f>
-        <v>8.2537914607255871</v>
-      </c>
-      <c r="H2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <f>VLOOKUP($A2,Duke_priming_for_Sue_copy!$A$2:$N$3,8,FALSE)</f>
-        <v>11.001041666666666</v>
-      </c>
-      <c r="J2">
-        <f>I2+H2</f>
-        <v>12.001041666666666</v>
-      </c>
-      <c r="K2">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>2008</v>
       </c>
-      <c r="L2">
-        <f>E2/(F2/100+1)</f>
+      <c r="P2">
+        <f>J2/(K2/100+1)</f>
         <v>74.113287453679192</v>
       </c>
-      <c r="O2">
-        <f>VLOOKUP($A2,Duke_priming_for_Sue_copy!$A$2:$N$3,10,FALSE)</f>
-        <v>-27.409302</v>
-      </c>
-      <c r="P2">
-        <f>VLOOKUP($A2,Duke_priming_for_Sue_copy!$A$2:$N$3,13,FALSE)</f>
-        <v>57.776793234576076</v>
-      </c>
-      <c r="Q2">
-        <f>VLOOKUP($A2,Duke_priming_for_Sue_copy!$A$2:$N$3,14,FALSE)</f>
-        <v>2.2055400311292943</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="str">
+        <f>A3</f>
+        <v>Du120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="H3" s="2">
         <v>0.8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="I3" s="3">
         <v>21.65</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>140</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>95.4</v>
       </c>
-      <c r="G3">
-        <f>VLOOKUP($A3,Duke_priming_for_Sue_copy!$A$2:$N$3,9,FALSE)</f>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2008</v>
+      </c>
+      <c r="P3">
+        <f>J3/(K3/100+1)</f>
+        <v>71.647901740020458</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="str">
+        <f>A4</f>
+        <v>Du123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <v>140</v>
+      </c>
+      <c r="K4">
+        <v>88.9</v>
+      </c>
+      <c r="L4">
+        <f>VLOOKUP($A4,Duke_priming_for_Sue_copy!$A$2:$N$3,9,FALSE)</f>
+        <v>8.2537914607255871</v>
+      </c>
+      <c r="M4">
+        <f>N4-1</f>
+        <v>11.001041666666666</v>
+      </c>
+      <c r="N4">
+        <v>12.001041666666666</v>
+      </c>
+      <c r="O4">
+        <v>2008</v>
+      </c>
+      <c r="P4">
+        <f>J4/(K4/100+1)</f>
+        <v>74.113287453679192</v>
+      </c>
+      <c r="S4">
+        <f>VLOOKUP($A4,Duke_priming_for_Sue_copy!$A$2:$N$3,10,FALSE)</f>
+        <v>-27.409302</v>
+      </c>
+      <c r="T4">
+        <f>VLOOKUP($A4,Duke_priming_for_Sue_copy!$A$2:$N$3,13,FALSE)</f>
+        <v>57.776793234576076</v>
+      </c>
+      <c r="U4">
+        <f>VLOOKUP($A4,Duke_priming_for_Sue_copy!$A$2:$N$3,14,FALSE)</f>
+        <v>2.2055400311292943</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="str">
+        <f>A5</f>
+        <v>Du120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>21.65</v>
+      </c>
+      <c r="J5">
+        <v>140</v>
+      </c>
+      <c r="K5">
+        <v>95.4</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP($A5,Duke_priming_for_Sue_copy!$A$2:$N$3,9,FALSE)</f>
         <v>11.100078325188022</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f>VLOOKUP($A3,Duke_priming_for_Sue_copy!$A$2:$N$3,8,FALSE)</f>
+      <c r="M5" s="3">
+        <f>N5-1</f>
         <v>11.02173611111111</v>
       </c>
-      <c r="J3">
-        <f>I3+H3</f>
+      <c r="N5">
         <v>12.02173611111111</v>
       </c>
-      <c r="K3">
+      <c r="O5">
         <v>2008</v>
       </c>
-      <c r="L3">
-        <f>E3/(F3/100+1)</f>
+      <c r="P5">
+        <f>J5/(K5/100+1)</f>
         <v>71.647901740020458</v>
       </c>
-      <c r="M3">
-        <f>B3*10^-3</f>
+      <c r="Q5">
+        <f>G5*10^-3</f>
         <v>1.66E-2</v>
       </c>
-      <c r="N3">
-        <f>G3*I3*10^-3/M3</f>
-        <v>7.3700080790895512</v>
-      </c>
-      <c r="O3">
-        <f>VLOOKUP($A3,Duke_priming_for_Sue_copy!$A$2:$N$3,10,FALSE)</f>
+      <c r="R5">
+        <f>L5*N5*10^-3/Q5</f>
+        <v>8.0386874962695529</v>
+      </c>
+      <c r="S5">
+        <f>VLOOKUP($A5,Duke_priming_for_Sue_copy!$A$2:$N$3,10,FALSE)</f>
         <v>-26.282150999999999</v>
       </c>
-      <c r="P3">
-        <f>VLOOKUP($A3,Duke_priming_for_Sue_copy!$A$2:$N$3,13,FALSE)</f>
+      <c r="T5">
+        <f>VLOOKUP($A5,Duke_priming_for_Sue_copy!$A$2:$N$3,13,FALSE)</f>
         <v>36.109722586570079</v>
       </c>
-      <c r="Q3">
-        <f>VLOOKUP($A3,Duke_priming_for_Sue_copy!$A$2:$N$3,14,FALSE)</f>
+      <c r="U5">
+        <f>VLOOKUP($A5,Duke_priming_for_Sue_copy!$A$2:$N$3,14,FALSE)</f>
         <v>1.9064348995607854</v>
       </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D4 N4 G4:H4">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>isformula(B3)</formula>
+  <conditionalFormatting sqref="I3 M3">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>isformula(I2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>isformula(B2)</formula>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>isformula(G2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>isformula(C2)</formula>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>isformula(H2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 H3">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>isformula(G4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>isformula(H4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 M5">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>isformula(D2)</formula>
+      <formula>isformula(I4)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
